--- a/xlsx/巴以冲突_intext.xlsx
+++ b/xlsx/巴以冲突_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="600">
   <si>
     <t>巴以冲突</t>
   </si>
@@ -29,7 +29,7 @@
     <t>中东战争</t>
   </si>
   <si>
-    <t>政策_政策_美國_巴以冲突</t>
+    <t>政策_政策_美国_巴以冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -47,19 +47,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>約旦河西岸地區</t>
+    <t>约旦河西岸地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E6%B0%91%E6%97%8F%E6%AC%8A%E5%8A%9B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦民族權力機構</t>
+    <t>巴勒斯坦民族权力机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E5%9C%B0%E5%B8%A6</t>
@@ -71,7 +68,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>衝突</t>
+    <t>冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%A5%E5%86%B2%E7%AA%81</t>
@@ -83,9 +80,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>中東戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
@@ -101,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%9C%8B%E6%96%B9%E6%A1%88</t>
   </si>
   <si>
-    <t>兩國方案</t>
+    <t>两国方案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%9C%8B%E6%96%B9%E6%A1%88</t>
   </si>
   <si>
-    <t>一國方案</t>
+    <t>一国方案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7</t>
@@ -125,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D</t>
   </si>
   <si>
-    <t>維也納</t>
+    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E8%B5%AB%E8%8C%A8%E5%B0%94</t>
@@ -161,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E8%A8%97%E7%AE%A1%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬巴勒斯坦託管地</t>
+    <t>英属巴勒斯坦讬管地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
@@ -197,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA%E5%A4%A7%E5%B1%A0%E6%AE%BA</t>
   </si>
   <si>
-    <t>猶太人大屠殺</t>
+    <t>犹太人大屠杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -257,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%88%90%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國成員國列表</t>
+    <t>联合国成员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -287,13 +281,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
+    <t>叙利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
@@ -305,13 +296,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%9C%8B%E9%98%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>以色列國防軍</t>
+    <t>以色列国防军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6%E6%B2%B3</t>
@@ -323,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>撒馬利亞</t>
+    <t>撒马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9F%E6%B3%95%E5%BA%95%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
@@ -335,19 +323,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>西奈半島</t>
+    <t>西奈半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E8%98%AD%E9%AB%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>戈蘭高地</t>
+    <t>戈兰高地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%E7%87%9F%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>大衛營和約</t>
+    <t>大卫营和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -365,9 +353,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/1972%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
   </si>
   <si>
@@ -383,19 +368,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%AD%B4%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>天譴行動</t>
+    <t>天谴行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E5%A0%B1%E7%89%B9%E5%8B%99%E5%B1%80</t>
   </si>
   <si>
-    <t>情報特務局</t>
+    <t>情报特务局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E8%96%A9%E5%BE%B7</t>
   </si>
   <si>
-    <t>摩薩德</t>
+    <t>摩萨德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%B7%A5</t>
@@ -407,15 +392,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9A%97%E6%AE%BA</t>
   </si>
   <si>
-    <t>暗殺</t>
+    <t>暗杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
   </si>
   <si>
@@ -431,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>黎巴嫩戰爭</t>
+    <t>黎巴嫩战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E9%B2%81%E7%89%B9</t>
@@ -443,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E8%A7%A3%E6%94%BE%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>巴勒斯坦解放組織</t>
+    <t>巴勒斯坦解放组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF</t>
@@ -455,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E9%99%B8%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>奧斯陸協議</t>
+    <t>奥斯陆协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E6%9E%97%E9%A0%93</t>
   </si>
   <si>
-    <t>柯林頓</t>
+    <t>柯林顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%89%8E%E5%85%8B%C2%B7%E6%8B%89%E5%AE%BE</t>
@@ -473,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A6%AC%E6%96%AF</t>
   </si>
   <si>
-    <t>哈馬斯</t>
+    <t>哈马斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%92%99%C2%B7%E4%BD%A9%E9%9B%B7%E6%96%AF</t>
@@ -503,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E6%9F%AF%E6%9E%97%E9%A0%93</t>
   </si>
   <si>
-    <t>比爾·柯林頓</t>
+    <t>比尔·柯林顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E8%90%A8%E7%BE%A4%E4%BC%97%E8%B5%B7%E4%B9%89</t>
@@ -515,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>加沙戰爭</t>
+    <t>加沙战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E4%BB%A5%E5%B7%B4%E5%86%B2%E7%AA%81</t>
@@ -527,9 +509,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E8%96%A9%E7%BE%A4%E7%9C%BE%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>阿克薩群眾起義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%E5%9F%83%E5%8B%92%C2%B7%E6%B2%99%E9%BE%99</t>
   </si>
   <si>
@@ -557,9 +536,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A9%AC%E6%96%AF</t>
   </si>
   <si>
-    <t>哈马斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E6%B5%B7%E6%B9%BE%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -677,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%AD%E7%89%86</t>
   </si>
   <si>
-    <t>哭牆</t>
+    <t>哭墙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%A1%94%E8%B5%AB</t>
@@ -689,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%83%A1%E5%BE%B7%C2%B7%E5%A5%A7%E7%88%BE%E9%BB%98%E7%89%B9</t>
   </si>
   <si>
-    <t>艾胡德·奧爾默特</t>
+    <t>艾胡德·奥尔默特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -713,19 +689,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%91%AA%E6%96%AF</t>
   </si>
   <si>
-    <t>哈瑪斯</t>
+    <t>哈玛斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8</t>
   </si>
   <si>
-    <t>約旦河西岸</t>
+    <t>约旦河西岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97%E5%85%84%E5%BC%9F%E6%9C%83</t>
   </si>
   <si>
-    <t>穆斯林兄弟會</t>
+    <t>穆斯林兄弟会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA</t>
@@ -791,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%9C%E6%88%B0%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>停戰協定</t>
+    <t>停战协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E6%97%A5%E6%88%98%E4%BA%89</t>
@@ -803,19 +779,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>黎巴嫩战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4%E4%BB%A5%E5%B7%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>2009年以巴戰爭</t>
+    <t>2009年以巴战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4%E4%BB%A5%E5%B7%B4%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>2015年以巴衝突</t>
+    <t>2015年以巴冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E5%A4%8D%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
@@ -845,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>蘋果日報</t>
+    <t>苹果日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -857,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>維基新聞</t>
+    <t>维基新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E6%83%85%E6%8A%A5%E5%8F%8A%E7%89%B9%E5%88%AB%E8%A1%8C%E5%8A%A8%E5%B1%80</t>
@@ -869,21 +842,15 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>以色列國家安全局</t>
+    <t>以色列国家安全局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E6%B0%91%E6%97%8F%E6%9D%83%E5%8A%9B%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
-    <t>巴勒斯坦民族权力机构</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E8%A7%A3%E6%94%BE%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
-    <t>巴勒斯坦解放组织</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E8%90%A8%E7%83%88%E5%A3%AB%E6%97%85</t>
   </si>
   <si>
@@ -893,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E6%B0%91%E4%B8%BB%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>解放巴勒斯坦民主陣線</t>
+    <t>解放巴勒斯坦民主阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E8%A7%A3%E6%94%BE%E9%98%B5%E7%BA%BF</t>
@@ -917,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E4%BA%BA%E6%B0%91%E9%99%A3%E7%B7%9A%E7%B8%BD%E6%8C%87%E6%8F%AE%E9%83%A8</t>
   </si>
   <si>
-    <t>解放巴勒斯坦人民陣線總指揮部</t>
+    <t>解放巴勒斯坦人民阵线总指挥部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E4%BA%BA</t>
@@ -953,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B6%AD%C2%B7%E7%8B%84%E5%B8%8C%E7%89%B9</t>
   </si>
   <si>
-    <t>艾維·狄希特</t>
+    <t>艾维·狄希特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%C2%B7%E6%9C%AC-%E5%8F%A4%E9%87%8C%E5%AE%89</t>
@@ -1073,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E8%A8%97%E7%AE%A1%E5%9C%B0</t>
   </si>
   <si>
-    <t>巴勒斯坦託管地</t>
+    <t>巴勒斯坦讬管地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1929%E5%B9%B4%E5%B8%8C%E4%BC%AF%E4%BC%A6%E5%A4%A7%E5%B1%A0%E6%9D%80</t>
@@ -1091,13 +1058,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A3%AE%E6%A9%9F%E5%A0%B4%E5%8A%AB%E6%A9%9F%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>道森機場劫機事件</t>
+    <t>道森机场劫机事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%8E%8E%E8%88%AA%E7%A9%BA649%E8%99%9F%E7%8F%AD%E6%A9%9F%E5%8A%AB%E6%A9%9F%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>漢莎航空649號班機劫機事件</t>
+    <t>汉莎航空649号班机劫机事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6%E8%88%AA%E7%A9%BA571%E5%8F%B7%E7%8F%AD%E6%9C%BA%E5%8A%AB%E6%9C%BA%E4%BA%8B%E4%BB%B6</t>
@@ -1109,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D%E7%9A%84%E5%BE%A9%E4%BB%87%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>上帝的復仇行動</t>
+    <t>上帝的复仇行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E5%BE%B7%E5%9F%B9%E8%A1%8C%E5%8A%A8</t>
@@ -1133,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%9F%BA%E8%90%8A%C2%B7%E5%8B%9E%E5%80%AB%E8%99%9F</t>
   </si>
   <si>
-    <t>阿基萊·勞倫號</t>
+    <t>阿基莱·劳伦号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E8%84%9A%E8%A1%8C%E5%8A%A8</t>
@@ -1145,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%A4%A7%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>第一次巴勒斯坦大起義</t>
+    <t>第一次巴勒斯坦大起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E5%8D%9C%E6%8B%89%E6%AC%A3%E5%A4%A7%E6%83%A8%E6%A1%88</t>
@@ -1169,9 +1136,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>加沙战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E8%88%B9%E9%98%9F%E5%86%B2%E7%AA%81</t>
   </si>
   <si>
@@ -1187,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1%E5%95%8F%E9%A1%8C%E6%9C%89%E9%97%9C%E5%9B%9B%E6%96%B9</t>
   </si>
   <si>
-    <t>中東問題有關四方</t>
+    <t>中东问题有关四方</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E7%90%86%E4%BC%9A242%E5%8F%B7%E5%86%B3%E8%AE%AE</t>
@@ -1217,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%80%E8%82%AF%E7%B4%8D%E8%8C%B2%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>阿什肯納茲猶太人</t>
+    <t>阿什肯纳兹犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%85%B9%E6%8B%89%E5%B8%8C%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
@@ -1235,31 +1199,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9F%8F%E7%88%BE%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>柏柏爾猶太人</t>
+    <t>柏柏尔犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%A0%BC%E6%8B%89%E5%B8%83%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>馬格拉布猶太人</t>
+    <t>马格拉布犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>葉門猶太人</t>
+    <t>叶门犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8A%9B%E8%AB%BE%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>聖馬力諾猶太人</t>
+    <t>圣马力诺犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>中國猶太人</t>
+    <t>中国犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E5%B0%81%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
@@ -1271,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E6%B8%AF%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>在港猶太人</t>
+    <t>在港犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E7%8A%B9%E5%A4%AA%E7%A7%BB%E6%B0%91</t>
@@ -1283,19 +1247,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>牙買加猶太人</t>
+    <t>牙买加犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E6%9E%9D%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>柯枝猶太人</t>
+    <t>柯枝犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E5%B0%A4%E9%81%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿巴尤達亞</t>
+    <t>阿巴尤达亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%A1%94%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -1307,13 +1271,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%8C%B6%E5%A4%AA%E4%BA%BA%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>臺灣猶太人歷史</t>
+    <t>台湾犹太人历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>猶太語言</t>
+    <t>犹太语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E6%9D%A5%E8%AF%AD</t>
@@ -1325,31 +1289,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA-%E6%91%A9%E6%B4%9B%E5%93%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>猶太-摩洛哥語</t>
+    <t>犹太-摩洛哥语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA-%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>猶太-阿拉伯語</t>
+    <t>犹太-阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%BF%AA%E8%AB%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉迪諾語</t>
+    <t>拉迪诺语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA-%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>猶太-葡萄牙語</t>
+    <t>犹太-葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E7%AC%AC%E7%B7%92%E8%AA%9E</t>
   </si>
   <si>
-    <t>意第緒語</t>
+    <t>意第绪语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA-%E7%BD%97%E6%9B%BC%E8%AF%AD%E6%94%AF</t>
@@ -1361,31 +1325,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E6%AD%A3%E7%B5%B1%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教正統派</t>
+    <t>犹太教正统派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%9B%B7%E8%BF%AA%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>哈雷迪猶太教</t>
+    <t>哈雷迪犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%A5%BF%E8%BF%AA%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>哈西迪猶太教</t>
+    <t>哈西迪犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E4%BF%9D%E5%AE%88%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教保守派</t>
+    <t>犹太教保守派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E6%94%B9%E9%9D%A9%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教改革派</t>
+    <t>犹太教改革派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E6%95%99%E5%8D%A1%E6%8B%89%E6%B4%BE</t>
@@ -1397,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>撒馬利亞人</t>
+    <t>撒马利亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%89%E6%B0%91_(%E5%AE%97%E6%95%99)</t>
@@ -1421,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E5%90%88%E6%95%99%E8%A6%8F%E7%9A%84%E9%A3%9F%E7%89%A9_(%E7%8C%B6%E5%A4%AA%E6%95%99)</t>
   </si>
   <si>
-    <t>符合教規的食物 (猶太教)</t>
+    <t>符合教规的食物 (犹太教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A5%E8%B5%9B%E4%BA%9A</t>
@@ -1433,13 +1397,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E4%BA%9E%E4%B8%83%E5%BE%8B</t>
   </si>
   <si>
-    <t>挪亞七律</t>
+    <t>挪亚七律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%B4%8D%E8%B5%AB</t>
   </si>
   <si>
-    <t>塔納赫</t>
+    <t>塔纳赫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%A5%E6%8B%89</t>
@@ -1469,13 +1433,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%9B%B8%E6%8B%BF</t>
   </si>
   <si>
-    <t>米書拿</t>
+    <t>米书拿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E9%A6%AC%E6%8B%89</t>
   </si>
   <si>
-    <t>革馬拉</t>
+    <t>革马拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%BE%B7%E6%8B%89%E4%BB%80</t>
@@ -1517,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84_(%E8%88%8A%E7%B4%84)</t>
   </si>
   <si>
-    <t>雅各 (舊約)</t>
+    <t>雅各 (旧约)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E6%8B%89</t>
@@ -1577,13 +1541,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>以利亞</t>
+    <t>以利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%9E%E8%B2%B7</t>
   </si>
   <si>
-    <t>煞買</t>
+    <t>煞买</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%BB%80</t>
@@ -1607,7 +1571,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%B0%E6%98%AF%E7%8C%B6%E5%A4%AA%E4%BA%BA%3F</t>
   </si>
   <si>
-    <t>誰是猶太人-</t>
+    <t>谁是犹太人-</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B2%E7%A4%BC</t>
@@ -1619,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%88%E4%BE%9D%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>皈依猶太教</t>
+    <t>皈依犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E6%95%99%E5%9B%9B%E5%A4%A7%E5%9C%A3%E5%9F%8E</t>
@@ -1667,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7%E8%81%96%E6%AE%BF</t>
   </si>
   <si>
-    <t>耶路撒冷聖殿</t>
+    <t>耶路撒冷圣殿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A2%99</t>
@@ -1697,19 +1661,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8A%E8%A7%92%E8%99%9F</t>
   </si>
   <si>
-    <t>羊角號</t>
+    <t>羊角号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%98%87_(%E7%8C%B6%E5%A4%AA%E6%95%99)</t>
   </si>
   <si>
-    <t>流蘇 (猶太教)</t>
+    <t>流苏 (犹太教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B7%B4_(%E7%8C%B6%E5%A4%AA%E6%95%99)</t>
   </si>
   <si>
-    <t>基巴 (猶太教)</t>
+    <t>基巴 (犹太教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%AF%E6%8B%89%E7%BD%95%E5%AE%97%E6%95%99</t>
@@ -1727,7 +1691,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%95%B0%E6%95%99%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新異教主義</t>
+    <t>新异教主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E5%8E%86%E5%8F%B2</t>
@@ -1745,7 +1709,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>猶太公會</t>
+    <t>犹太公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%88%A9%E8%B5%9B%E4%BA%BA</t>
@@ -1763,13 +1727,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%B3%BD%E5%B0%BC%E6%B4%BE</t>
   </si>
   <si>
-    <t>艾賽尼派</t>
+    <t>艾赛尼派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%AE%E9%8A%B3%E9%BB%A8</t>
   </si>
   <si>
-    <t>奮銳黨</t>
+    <t>奋锐党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E7%8A%B9%E5%A4%AA%E7%BD%97%E9%A9%AC%E6%88%98%E4%BA%89</t>
@@ -1799,13 +1763,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E4%BA%BA%E5%A4%A7%E5%B1%A0%E6%9D%80</t>
   </si>
   <si>
-    <t>犹太人大屠杀</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%88%A9%E4%BA%9E%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>阿利亞運動</t>
+    <t>阿利亚运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%9C%B0</t>
@@ -1817,19 +1778,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>錫安主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8%E9%8C%AB%E5%AE%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>工黨錫安主義</t>
+    <t>工党锡安主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E5%8D%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>迦南主義</t>
+    <t>迦南主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E6%94%BF%E6%B2%BB</t>
@@ -2343,7 +2301,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -2369,10 +2327,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -2398,10 +2356,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -2427,10 +2385,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -2456,10 +2414,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>17</v>
@@ -2485,10 +2443,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -2514,10 +2472,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -2543,10 +2501,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
         <v>30</v>
@@ -2572,10 +2530,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
         <v>13</v>
@@ -2601,10 +2559,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2630,10 +2588,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -2659,10 +2617,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -2688,10 +2646,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2717,10 +2675,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2746,10 +2704,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2775,10 +2733,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -2804,10 +2762,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2833,10 +2791,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>5</v>
@@ -2862,10 +2820,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2891,10 +2849,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -2920,10 +2878,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2949,10 +2907,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2978,10 +2936,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
@@ -3007,10 +2965,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3036,10 +2994,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3065,10 +3023,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -3094,10 +3052,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3123,10 +3081,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>7</v>
@@ -3152,10 +3110,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3181,10 +3139,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3210,10 +3168,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>12</v>
@@ -3239,10 +3197,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3268,10 +3226,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>13</v>
@@ -3297,10 +3255,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -3326,10 +3284,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3355,10 +3313,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3384,10 +3342,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3413,10 +3371,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3442,10 +3400,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3471,10 +3429,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>15</v>
@@ -3500,10 +3458,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -3529,10 +3487,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G46" t="n">
         <v>14</v>
@@ -3558,10 +3516,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -3587,10 +3545,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G48" t="n">
         <v>9</v>
@@ -3616,10 +3574,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -3645,10 +3603,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>4</v>
@@ -3674,10 +3632,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>4</v>
@@ -3703,10 +3661,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3732,10 +3690,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
         <v>11</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
       </c>
       <c r="G53" t="n">
         <v>7</v>
@@ -3761,10 +3719,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
         <v>15</v>
-      </c>
-      <c r="F54" t="s">
-        <v>16</v>
       </c>
       <c r="G54" t="n">
         <v>12</v>
@@ -3790,10 +3748,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3819,10 +3777,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3848,10 +3806,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -3877,10 +3835,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3906,10 +3864,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3935,10 +3893,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3964,10 +3922,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3993,10 +3951,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="G62" t="n">
         <v>20</v>
@@ -4022,10 +3980,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4051,10 +4009,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -4080,10 +4038,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4109,10 +4067,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4138,10 +4096,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4167,10 +4125,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4196,10 +4154,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4225,10 +4183,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -4254,10 +4212,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -4283,10 +4241,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4312,10 +4270,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4341,10 +4299,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4370,10 +4328,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4399,10 +4357,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -4428,10 +4386,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F77" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4457,10 +4415,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G78" t="n">
         <v>7</v>
@@ -4486,10 +4444,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -4515,10 +4473,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4544,10 +4502,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -4573,10 +4531,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4602,10 +4560,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4631,10 +4589,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -4660,10 +4618,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4689,10 +4647,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4718,10 +4676,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4747,10 +4705,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4776,10 +4734,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4805,10 +4763,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4834,10 +4792,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4863,10 +4821,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4892,10 +4850,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4921,10 +4879,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4950,10 +4908,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4979,10 +4937,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="G96" t="n">
         <v>13</v>
@@ -5008,10 +4966,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F97" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5037,10 +4995,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F98" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5066,10 +5024,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F99" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5095,10 +5053,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F100" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5124,10 +5082,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5153,10 +5111,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F102" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5182,10 +5140,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5211,10 +5169,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F104" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -5240,10 +5198,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F105" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5269,10 +5227,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F106" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5298,10 +5256,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F107" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5327,10 +5285,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F108" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5356,10 +5314,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F109" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5385,10 +5343,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F110" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G110" t="n">
         <v>4</v>
@@ -5414,10 +5372,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F111" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5443,10 +5401,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F112" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5472,10 +5430,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F113" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G113" t="n">
         <v>4</v>
@@ -5501,10 +5459,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F114" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5530,10 +5488,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F115" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5559,10 +5517,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F116" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G116" t="n">
         <v>4</v>
@@ -5588,10 +5546,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F117" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5617,10 +5575,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F118" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5646,10 +5604,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F119" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5675,10 +5633,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F120" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G120" t="n">
         <v>4</v>
@@ -5704,10 +5662,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F121" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5733,10 +5691,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F122" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5762,10 +5720,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F123" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5791,10 +5749,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F124" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -5820,10 +5778,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F125" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5849,10 +5807,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F126" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -5878,10 +5836,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F127" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5907,10 +5865,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F128" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5936,10 +5894,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F129" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5965,10 +5923,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F130" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G130" t="n">
         <v>12</v>
@@ -5994,10 +5952,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F131" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G131" t="n">
         <v>4</v>
@@ -6023,10 +5981,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F132" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6052,10 +6010,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F133" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -6081,10 +6039,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F134" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6110,10 +6068,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F135" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6139,10 +6097,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F136" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6168,10 +6126,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F137" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6197,10 +6155,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F138" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6226,10 +6184,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F139" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6255,10 +6213,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F140" t="s">
-        <v>262</v>
+        <v>132</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6284,10 +6242,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F141" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6313,10 +6271,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F142" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6342,10 +6300,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F143" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -6371,10 +6329,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F144" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6400,10 +6358,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F145" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6429,10 +6387,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6458,10 +6416,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F147" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6487,10 +6445,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F148" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6516,10 +6474,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F149" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6545,10 +6503,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F150" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6574,10 +6532,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F151" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6603,10 +6561,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F152" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6632,10 +6590,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F153" t="s">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6661,10 +6619,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F154" t="s">
-        <v>288</v>
+        <v>136</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6690,10 +6648,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F155" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6719,10 +6677,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F156" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6748,10 +6706,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F157" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6777,10 +6735,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F158" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6806,10 +6764,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F159" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6835,10 +6793,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F160" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6864,10 +6822,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F161" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="G161" t="n">
         <v>18</v>
@@ -6893,10 +6851,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F162" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6922,10 +6880,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F163" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6951,10 +6909,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F164" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6980,10 +6938,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F165" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7009,10 +6967,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F166" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7038,10 +6996,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F167" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7067,10 +7025,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F168" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7096,10 +7054,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F169" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7125,10 +7083,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F170" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7154,10 +7112,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F171" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7183,10 +7141,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F172" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7212,10 +7170,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F173" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7241,10 +7199,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="F174" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7270,10 +7228,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F175" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7299,10 +7257,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F176" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7328,10 +7286,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F177" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G177" t="n">
         <v>22</v>
@@ -7357,10 +7315,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F178" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7386,10 +7344,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F179" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7415,10 +7373,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F180" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7444,10 +7402,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F181" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7473,10 +7431,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F182" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7502,10 +7460,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F183" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7531,10 +7489,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F184" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7560,10 +7518,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F185" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7589,10 +7547,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F186" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7618,10 +7576,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F187" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7647,10 +7605,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F188" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7676,10 +7634,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F189" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7705,10 +7663,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F190" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7734,10 +7692,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F191" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7763,10 +7721,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F192" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7792,10 +7750,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F193" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7821,10 +7779,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F194" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7850,10 +7808,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F195" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7879,10 +7837,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F196" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7908,10 +7866,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F197" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7937,10 +7895,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F198" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7966,10 +7924,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F199" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7995,10 +7953,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F200" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8024,10 +7982,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F201" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8053,10 +8011,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F202" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8082,10 +8040,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F203" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8111,10 +8069,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F204" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8140,10 +8098,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F205" t="s">
-        <v>384</v>
+        <v>160</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8169,10 +8127,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F206" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8198,10 +8156,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F207" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8227,10 +8185,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F208" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8256,10 +8214,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F209" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8285,10 +8243,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F210" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8314,10 +8272,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F211" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8343,10 +8301,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F212" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8372,10 +8330,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F213" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8401,10 +8359,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F214" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8430,10 +8388,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F215" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8459,10 +8417,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F216" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8488,10 +8446,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F217" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8517,10 +8475,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="F218" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8546,10 +8504,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F219" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8575,10 +8533,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F220" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8604,10 +8562,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F221" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8633,10 +8591,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F222" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8662,10 +8620,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F223" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8691,10 +8649,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F224" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8720,10 +8678,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F225" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8749,10 +8707,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F226" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8778,10 +8736,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F227" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8807,10 +8765,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F228" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8836,10 +8794,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F229" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8865,10 +8823,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F230" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8894,10 +8852,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F231" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8923,10 +8881,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F232" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8952,10 +8910,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="F233" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8981,10 +8939,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F234" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9010,10 +8968,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="F235" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9039,10 +8997,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F236" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9068,10 +9026,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F237" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9097,10 +9055,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F238" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9126,10 +9084,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F239" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9155,10 +9113,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F240" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9184,10 +9142,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F241" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9213,10 +9171,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F242" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G242" t="n">
         <v>3</v>
@@ -9242,10 +9200,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F243" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9271,10 +9229,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F244" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9300,10 +9258,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F245" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9329,10 +9287,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F246" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9358,10 +9316,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F247" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9387,10 +9345,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F248" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9416,10 +9374,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="F249" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9445,10 +9403,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F250" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9474,10 +9432,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F251" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9503,10 +9461,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F252" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9532,10 +9490,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F253" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -9561,10 +9519,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F254" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9590,10 +9548,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F255" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9619,10 +9577,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F256" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9648,10 +9606,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F257" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9677,10 +9635,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F258" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9706,10 +9664,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F259" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9735,10 +9693,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F260" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9764,10 +9722,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F261" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9793,10 +9751,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F262" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9822,10 +9780,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F263" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9851,10 +9809,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F264" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9880,10 +9838,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F265" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9909,10 +9867,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F266" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G266" t="n">
         <v>4</v>
@@ -9938,10 +9896,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F267" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G267" t="n">
         <v>4</v>
@@ -9967,10 +9925,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F268" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -9996,10 +9954,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F269" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10025,10 +9983,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F270" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10054,10 +10012,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F271" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10083,10 +10041,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F272" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G272" t="n">
         <v>4</v>
@@ -10112,10 +10070,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F273" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G273" t="n">
         <v>6</v>
@@ -10141,10 +10099,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F274" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10170,10 +10128,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F275" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10199,10 +10157,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F276" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10228,10 +10186,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F277" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10257,10 +10215,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F278" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10286,10 +10244,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F279" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10315,10 +10273,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F280" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10344,10 +10302,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F281" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10373,10 +10331,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F282" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10402,10 +10360,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F283" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10431,10 +10389,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F284" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10460,10 +10418,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F285" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10489,10 +10447,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F286" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10518,10 +10476,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F287" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10547,10 +10505,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F288" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10576,10 +10534,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F289" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10605,10 +10563,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F290" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10634,10 +10592,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F291" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G291" t="n">
         <v>3</v>
@@ -10663,10 +10621,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="F292" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10692,10 +10650,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F293" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G293" t="n">
         <v>3</v>
@@ -10721,10 +10679,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="F294" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10750,10 +10708,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F295" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10779,10 +10737,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F296" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10808,10 +10766,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F297" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10837,10 +10795,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F298" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10866,10 +10824,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F299" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10895,10 +10853,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="F300" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10924,10 +10882,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="F301" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10953,10 +10911,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="F302" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10982,10 +10940,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="F303" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11011,10 +10969,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="F304" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G304" t="n">
         <v>9</v>
@@ -11040,10 +10998,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F305" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11069,10 +11027,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="F306" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11098,10 +11056,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="F307" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11127,10 +11085,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F308" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11156,10 +11114,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="F309" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11185,10 +11143,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="F310" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11214,10 +11172,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F311" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11243,10 +11201,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="F312" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11272,10 +11230,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="F313" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11301,10 +11259,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="F314" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11330,10 +11288,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F315" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G315" t="n">
         <v>9</v>
@@ -11359,10 +11317,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="F316" t="s">
-        <v>594</v>
+        <v>58</v>
       </c>
       <c r="G316" t="n">
         <v>3</v>
@@ -11388,10 +11346,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="F317" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11417,10 +11375,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F318" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11446,10 +11404,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
+        <v>18</v>
+      </c>
+      <c r="F319" t="s">
         <v>19</v>
-      </c>
-      <c r="F319" t="s">
-        <v>20</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11475,10 +11433,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="F320" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -11504,10 +11462,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="F321" t="s">
-        <v>600</v>
+        <v>38</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -11533,10 +11491,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="F322" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11562,10 +11520,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="F323" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11591,10 +11549,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="F324" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="G324" t="n">
         <v>3</v>
@@ -11620,10 +11578,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="F325" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11649,10 +11607,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="F326" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11678,10 +11636,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="F327" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="G327" t="n">
         <v>5</v>
@@ -11707,10 +11665,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="F328" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="G328" t="n">
         <v>11</v>
@@ -11736,10 +11694,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="F329" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
